--- a/zodiac-sign.xlsx
+++ b/zodiac-sign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/get_constellation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DECB3548-CA75-4E4C-A551-C972CE94C77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485FFE1-D299-E246-BB3D-B10A0CF9F100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FD9B3C86-DF55-B647-9380-FD6C089E4427}"/>
   </bookViews>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Constellation</t>
   </si>
   <si>
-    <t>Year 500</t>
-  </si>
-  <si>
-    <t>Year 3000</t>
-  </si>
-  <si>
-    <t>Year 5500</t>
-  </si>
-  <si>
     <t>Capricornus</t>
   </si>
   <si>
@@ -57,15 +48,9 @@
     <t>Pisces</t>
   </si>
   <si>
-    <t>Jan 27 - Feb 19</t>
-  </si>
-  <si>
     <t>Aries</t>
   </si>
   <si>
-    <t>Feb 20 - Mar 28</t>
-  </si>
-  <si>
     <t>Taurus</t>
   </si>
   <si>
@@ -78,15 +63,9 @@
     <t>Leo</t>
   </si>
   <si>
-    <t>Jul 21 - Aug 26</t>
-  </si>
-  <si>
     <t>Virgo</t>
   </si>
   <si>
-    <t>Aug 27 - Oct 10</t>
-  </si>
-  <si>
     <t>Libra</t>
   </si>
   <si>
@@ -99,115 +78,28 @@
     <t>Sagittarius</t>
   </si>
   <si>
-    <t>Jan 02 - Feb 02</t>
-  </si>
-  <si>
-    <t>Feb 03 - Mar 02</t>
-  </si>
-  <si>
-    <t>Mar 03 - Mar 26</t>
-  </si>
-  <si>
-    <t>Mar 27 - May 02</t>
-  </si>
-  <si>
-    <t>May 03 - May 28</t>
-  </si>
-  <si>
-    <t>Jul 06 - Aug 03</t>
-  </si>
-  <si>
-    <t>Aug 04 - Aug 24</t>
-  </si>
-  <si>
-    <t>Oct 01 - Nov 14</t>
-  </si>
-  <si>
-    <t>Nov 15 - Dec 08</t>
-  </si>
-  <si>
-    <t>Dec 09 - Dec 13</t>
-  </si>
-  <si>
-    <t>Dec 14 - Jan 01</t>
-  </si>
-  <si>
-    <t>Jan 13 - Jan 17</t>
-  </si>
-  <si>
-    <t>Jan 18 - Feb 05</t>
-  </si>
-  <si>
-    <t>Feb 06 - Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11 - Apr 06</t>
-  </si>
-  <si>
-    <t>May 01 - Jun 06</t>
-  </si>
-  <si>
-    <t>Jun 07 - Jul 02</t>
-  </si>
-  <si>
-    <t>Jul 03 - Aug 09</t>
-  </si>
-  <si>
-    <t>Aug 10 - Sep 07</t>
-  </si>
-  <si>
-    <t>Sep 08 - Sep 28</t>
-  </si>
-  <si>
-    <t>Nov 05 - Dec 19</t>
-  </si>
-  <si>
-    <t>Dec 20 - Jan 12</t>
-  </si>
-  <si>
-    <t>Nov 28 - Dec 29</t>
-  </si>
-  <si>
-    <t>Dec 30 - Jan 26</t>
-  </si>
-  <si>
-    <t>Mar 29 - Apr 23</t>
-  </si>
-  <si>
-    <t>Apr 24 - May 31</t>
-  </si>
-  <si>
-    <t>Jun 01 - Jun 30</t>
-  </si>
-  <si>
-    <t>Jul 01 - Jul 20</t>
-  </si>
-  <si>
-    <t>Oct 11 - Nov 01</t>
-  </si>
-  <si>
-    <t>Nov 02 - Nov 08</t>
-  </si>
-  <si>
-    <t>Nov 09 - Nov 27</t>
-  </si>
-  <si>
-    <t>May 29 - Jul 05</t>
-  </si>
-  <si>
-    <t>Aug 25 - Sep 30</t>
-  </si>
-  <si>
-    <t>Apr 07 - Apr 30</t>
-  </si>
-  <si>
-    <t>Sep 29 - Nov 04</t>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Year 1983</t>
+  </si>
+  <si>
+    <t>Year 2150</t>
+  </si>
+  <si>
+    <t>Year 1850</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="mmm\ dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -217,15 +109,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,13 +137,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,217 +490,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F3796-EBFC-6740-B161-3A056614DAF1}">
-  <dimension ref="A1:D14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>675746</v>
+      </c>
+      <c r="C3" s="2">
+        <v>675769</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30364</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30387</v>
+      </c>
+      <c r="F3" s="2">
+        <v>91362</v>
+      </c>
+      <c r="G3" s="2">
+        <v>91385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>675770</v>
+      </c>
+      <c r="C4" s="2">
+        <v>675806</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30388</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30425</v>
+      </c>
+      <c r="F4" s="2">
+        <v>91386</v>
+      </c>
+      <c r="G4" s="2">
+        <v>91422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>675807</v>
+      </c>
+      <c r="C5" s="2">
+        <v>675832</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30426</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30450</v>
+      </c>
+      <c r="F5" s="2">
+        <v>91423</v>
+      </c>
+      <c r="G5" s="2">
+        <v>91448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>675833</v>
+      </c>
+      <c r="C6" s="4">
+        <v>675870</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30451</v>
+      </c>
+      <c r="E6" s="4">
+        <v>30488</v>
+      </c>
+      <c r="F6" s="4">
+        <v>91449</v>
+      </c>
+      <c r="G6" s="4">
+        <v>91486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>675871</v>
+      </c>
+      <c r="C7" s="2">
+        <v>675899</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30489</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30518</v>
+      </c>
+      <c r="F7" s="2">
+        <v>91487</v>
+      </c>
+      <c r="G7" s="2">
+        <v>91515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>675900</v>
+      </c>
+      <c r="C8" s="2">
+        <v>675920</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30519</v>
+      </c>
+      <c r="E8" s="2">
+        <v>30539</v>
+      </c>
+      <c r="F8" s="2">
+        <v>91516</v>
+      </c>
+      <c r="G8" s="2">
+        <v>91536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>675921</v>
+      </c>
+      <c r="C9" s="2">
+        <v>675957</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30540</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30576</v>
+      </c>
+      <c r="F9" s="2">
+        <v>91537</v>
+      </c>
+      <c r="G9" s="2">
+        <v>91573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>675958</v>
+      </c>
+      <c r="C10" s="2">
+        <v>676002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30577</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30620</v>
+      </c>
+      <c r="F10" s="2">
+        <v>91574</v>
+      </c>
+      <c r="G10" s="2">
+        <v>91618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>676003</v>
+      </c>
+      <c r="C11" s="2">
+        <v>676025</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30621</v>
+      </c>
+      <c r="E11" s="2">
+        <v>30643</v>
+      </c>
+      <c r="F11" s="2">
+        <v>91619</v>
+      </c>
+      <c r="G11" s="2">
+        <v>91641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>676026</v>
+      </c>
+      <c r="C12" s="2">
+        <v>676032</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30644</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30650</v>
+      </c>
+      <c r="F12" s="2">
+        <v>91642</v>
+      </c>
+      <c r="G12" s="2">
+        <v>91648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>676033</v>
+      </c>
+      <c r="C13" s="2">
+        <v>676050</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30651</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30668</v>
+      </c>
+      <c r="F13" s="2">
+        <v>91649</v>
+      </c>
+      <c r="G13" s="2">
+        <v>91666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>676051</v>
+      </c>
+      <c r="C14" s="2">
+        <v>675717</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30669</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30336</v>
+      </c>
+      <c r="F14" s="2">
+        <v>91667</v>
+      </c>
+      <c r="G14" s="2">
+        <v>91333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
+      <c r="B15" s="2">
+        <v>675718</v>
+      </c>
+      <c r="C15" s="2">
+        <v>675745</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30337</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30363</v>
+      </c>
+      <c r="F15" s="2">
+        <v>91334</v>
+      </c>
+      <c r="G15" s="2">
+        <v>91361</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>